--- a/samples/data-reporting-with-azure-functions-power-automate/stats.xlsx
+++ b/samples/data-reporting-with-azure-functions-power-automate/stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10816"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/KINGSTON/Dropbox/Projects/GitHub/Microsoft/MicrosoftCloud/samples/data-reporting-with-azure-functions-power-automate/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danwahlin/Dropbox/Projects/GitHub/Microsoft/MicrosoftCloud/samples/data-reporting-with-azure-functions-power-automate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1CD2500-DE18-BC4C-881C-8CA668587111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5986FF9D-9637-A644-93FB-C86305201447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="-8480" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51200" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RepoStats" sheetId="1" r:id="rId1"/>
@@ -139,9 +139,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -179,7 +179,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -285,7 +285,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -427,7 +427,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1150,6 +1150,6 @@
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" removed="0"/>
+  <clbl:label id="{87867195-f2b8-4ac2-b0b6-6bb73cb33afc}" enabled="1" method="Privileged" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
 </clbl:labelList>
 </file>